--- a/LAB8.xlsx
+++ b/LAB8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +245,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -374,12 +381,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,12 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -424,17 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,13 +448,310 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -489,7 +781,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -501,12 +792,147 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -518,235 +944,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -760,23 +963,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -785,193 +979,12 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -980,42 +993,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:H15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="15" tableBorderDxfId="16" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:H15" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" name="Roll no," dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Student Name " dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Maths" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="GUJARATI" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Hindi" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="English" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Sanskrit" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Age" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Roll no," dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Student Name " dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Maths" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="GUJARATI" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Hindi" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="English" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Sanskrit" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Age" dataDxfId="19" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B18" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="2">
-    <tableColumn id="1" name="Short cut key" dataDxfId="2"/>
-    <tableColumn id="2" name="Short cut key Description" dataDxfId="1"/>
+    <tableColumn id="1" name="Short cut key" dataDxfId="14"/>
+    <tableColumn id="2" name="Short cut key Description" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:H18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:H18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" name="RollNo." dataDxfId="26"/>
-    <tableColumn id="2" name="Student Name " dataDxfId="25"/>
-    <tableColumn id="3" name="Maths" dataDxfId="24"/>
-    <tableColumn id="4" name="GUJARATI" dataDxfId="23"/>
-    <tableColumn id="5" name="Hindi" dataDxfId="22"/>
-    <tableColumn id="6" name="English" dataDxfId="21"/>
-    <tableColumn id="7" name="Sanskrit" dataDxfId="20"/>
-    <tableColumn id="8" name="Age" dataDxfId="19"/>
+    <tableColumn id="1" name="RollNo." dataDxfId="7"/>
+    <tableColumn id="2" name="Student Name " dataDxfId="6"/>
+    <tableColumn id="3" name="Maths" dataDxfId="5"/>
+    <tableColumn id="4" name="GUJARATI" dataDxfId="4"/>
+    <tableColumn id="5" name="Hindi" dataDxfId="3"/>
+    <tableColumn id="6" name="English" dataDxfId="2"/>
+    <tableColumn id="7" name="Sanskrit" dataDxfId="1"/>
+    <tableColumn id="8" name="Age" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1323,16 +1336,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -1546,7 +1559,7 @@
       <c r="A10" s="5">
         <v>108</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5">
@@ -1763,10 +1776,13 @@
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1775,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,146 +1803,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1987,26 +2003,26 @@
   <sheetData>
     <row r="1" spans="1:18" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="K2" s="10" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="K2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18" ht="31.5" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -2209,7 +2225,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2230,12 +2246,12 @@
       <c r="G7" s="2">
         <v>76</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2256,12 +2272,12 @@
       <c r="G8" s="2">
         <v>74</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2282,12 +2298,12 @@
       <c r="G9" s="2">
         <v>63</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2308,12 +2324,12 @@
       <c r="G10" s="2">
         <v>75</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2334,12 +2350,12 @@
       <c r="G11" s="2">
         <v>42</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2360,22 +2376,22 @@
       <c r="G12" s="2">
         <v>52</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>21</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2396,7 +2412,7 @@
       <c r="G13" s="2">
         <v>45</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2425,7 +2441,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2446,7 +2462,7 @@
       <c r="G14" s="2">
         <v>55</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>18</v>
       </c>
       <c r="K14" s="2">
@@ -2475,7 +2491,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2496,7 +2512,7 @@
       <c r="G15" s="2">
         <v>65</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>15</v>
       </c>
       <c r="K15" s="2">
@@ -2525,7 +2541,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2546,7 +2562,7 @@
       <c r="G16" s="2">
         <v>75</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>16</v>
       </c>
       <c r="K16" s="2">
@@ -2575,7 +2591,7 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2596,7 +2612,7 @@
       <c r="G17" s="2">
         <v>85</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>18</v>
       </c>
       <c r="K17" s="2">
@@ -2625,7 +2641,7 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2646,7 +2662,7 @@
       <c r="G18" s="9">
         <v>52</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>16</v>
       </c>
       <c r="K18" s="2">
